--- a/Progess/work breakdown table.xlsx
+++ b/Progess/work breakdown table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HKII nam 3\CN java\Final\Progess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F3F74A-5C31-4A1C-8FCE-ED56818D6924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234837C-ED25-4CF6-BE74-0B91C77EC931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F425AD52-AB5F-4906-82E4-0135368E1AA1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>WEEK 1</t>
   </si>
@@ -50,24 +50,6 @@
     <t>Progress Report</t>
   </si>
   <si>
-    <t>Member 1</t>
-  </si>
-  <si>
-    <t>Member 2</t>
-  </si>
-  <si>
-    <t>Member 3</t>
-  </si>
-  <si>
-    <t>Not started</t>
-  </si>
-  <si>
-    <t>Member 4</t>
-  </si>
-  <si>
-    <t>Member 5</t>
-  </si>
-  <si>
     <t>Member</t>
   </si>
   <si>
@@ -75,12 +57,6 @@
   </si>
   <si>
     <t>Quang</t>
-  </si>
-  <si>
-    <t>Implement API documentation using Swagger</t>
-  </si>
-  <si>
-    <t>Implement error handling for API endpoints</t>
   </si>
   <si>
     <t>Write user manual for the application</t>
@@ -130,13 +106,28 @@
   </si>
   <si>
     <t>Continue working with documentations</t>
+  </si>
+  <si>
+    <t>continue to Implement authentication and authorization for API endpoints (Spring security), data validation for API endpoints, basic CRUD, core functionalities….</t>
+  </si>
+  <si>
+    <t>Continue working with documentations, make progress report….</t>
+  </si>
+  <si>
+    <t>Quang, Tiền, Thư</t>
+  </si>
+  <si>
+    <t>All members</t>
+  </si>
+  <si>
+    <t>WEEK 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,23 +152,11 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FFD1D5DB"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFD1D5DB"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,75 +165,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF444654"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -285,39 +206,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A18519-FE9B-465A-B00B-CF6B3114F6F3}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -648,181 +557,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>17</v>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="86.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="C27" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="C31" s="7" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
